--- a/iaff_assistant/documents/Student/Cost of living.xlsx
+++ b/iaff_assistant/documents/Student/Cost of living.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZPI\ZPI_VAF\iaff_assistant\documents\Student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9BD8439-08B2-4AEA-B208-B7E7473D4514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F94616-94F9-4F9F-B683-640A2F521045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{10E32492-6330-4ADE-9913-FF6287756C13}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{10E32492-6330-4ADE-9913-FF6287756C13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>&lt;b&gt;Cost of Living in Poland&lt;/b&gt;
 Living in Poland as a student is relatively affordable compared to other European Union countries. The cost of living for students can start from 1500 PLN (330 EUR) a month. However, the prices depend on the city you are currently living in. Living in the capital and tourism city might be slightly more expensive than in other Polish big cities. On this page, you will find out how much it costs to live in Poland for a month. Please remember, that to be able to study in Poland non-EU/EEA students have to possess sufficient means to cover the living costs.
@@ -68,6 +68,45 @@
   </si>
   <si>
     <t>Explore the cost of living in Poland for students, comparing expenses in various cities and providing a detailed monthly budget breakdown. Essential for planning your studies in Poland.</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>accom</t>
+  </si>
+  <si>
+    <t>insure</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>refugee</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>documentType</t>
+  </si>
+  <si>
+    <t>image</t>
   </si>
 </sst>
 </file>
@@ -112,14 +151,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,39 +471,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2074E40-A9C4-4FF8-BF10-21268DA99DD0}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="107.81640625" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" customWidth="1"/>
-    <col min="5" max="10" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.15234375" customWidth="1"/>
+    <col min="2" max="2" width="107.84375" customWidth="1"/>
+    <col min="3" max="3" width="18.84375" customWidth="1"/>
+    <col min="5" max="10" width="8.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="290" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:16" ht="291.45" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>

--- a/iaff_assistant/documents/Student/Cost of living.xlsx
+++ b/iaff_assistant/documents/Student/Cost of living.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZPI\ZPI_VAF\iaff_assistant\documents\Student\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vano\Documents\GitHub\ZPI_VAF\iaff_assistant\documents\Student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F94616-94F9-4F9F-B683-640A2F521045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E2B5E9-16A8-421C-8224-3788C568CE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{10E32492-6330-4ADE-9913-FF6287756C13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20760" windowHeight="11175" xr2:uid="{10E32492-6330-4ADE-9913-FF6287756C13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>&lt;b&gt;Cost of Living in Poland&lt;/b&gt;
 Living in Poland as a student is relatively affordable compared to other European Union countries. The cost of living for students can start from 1500 PLN (330 EUR) a month. However, the prices depend on the city you are currently living in. Living in the capital and tourism city might be slightly more expensive than in other Polish big cities. On this page, you will find out how much it costs to live in Poland for a month. Please remember, that to be able to study in Poland non-EU/EEA students have to possess sufficient means to cover the living costs.
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>image</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>Cost of Living in Poland</t>
   </si>
 </sst>
 </file>
@@ -473,19 +479,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2074E40-A9C4-4FF8-BF10-21268DA99DD0}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.15234375" customWidth="1"/>
-    <col min="2" max="2" width="107.84375" customWidth="1"/>
-    <col min="3" max="3" width="18.84375" customWidth="1"/>
-    <col min="5" max="10" width="8.69140625" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="107.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="5" max="10" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -535,7 +541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="291.45" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="315" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -544,6 +550,18 @@
       </c>
       <c r="C2" t="s">
         <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/iaff_assistant/documents/Student/Cost of living.xlsx
+++ b/iaff_assistant/documents/Student/Cost of living.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vano\Documents\GitHub\ZPI_VAF\iaff_assistant\documents\Student\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDIA\ZPI\ZPI_VAF\iaff_assistant\documents\Student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E2B5E9-16A8-421C-8224-3788C568CE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34FCF49-D51A-447E-BDAF-7516E230E073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20760" windowHeight="11175" xr2:uid="{10E32492-6330-4ADE-9913-FF6287756C13}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="13584" windowHeight="8964" xr2:uid="{10E32492-6330-4ADE-9913-FF6287756C13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>&lt;b&gt;Cost of Living in Poland&lt;/b&gt;
 Living in Poland as a student is relatively affordable compared to other European Union countries. The cost of living for students can start from 1500 PLN (330 EUR) a month. However, the prices depend on the city you are currently living in. Living in the capital and tourism city might be slightly more expensive than in other Polish big cities. On this page, you will find out how much it costs to live in Poland for a month. Please remember, that to be able to study in Poland non-EU/EEA students have to possess sufficient means to cover the living costs.
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Cost of Living in Poland</t>
+  </si>
+  <si>
+    <t>C:Users/vano/Documents/GitHub/ZPI_VAF/iaff_assistant/images/Student/costs.jpg</t>
   </si>
 </sst>
 </file>
@@ -165,7 +168,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -181,9 +184,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -221,7 +224,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -327,7 +330,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -480,18 +483,18 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="107.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="5" max="10" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="107.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="5" max="10" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -541,7 +544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="315" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="288" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -562,6 +565,9 @@
       </c>
       <c r="J2">
         <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/iaff_assistant/documents/Student/Cost of living.xlsx
+++ b/iaff_assistant/documents/Student/Cost of living.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDIA\ZPI\ZPI_VAF\iaff_assistant\documents\Student\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vano\Documents\GitHub\ZPI_VAF\iaff_assistant\documents\Student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34FCF49-D51A-447E-BDAF-7516E230E073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6675F887-02C6-42FD-99CB-F271951D7025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="13584" windowHeight="8964" xr2:uid="{10E32492-6330-4ADE-9913-FF6287756C13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20760" windowHeight="11175" xr2:uid="{10E32492-6330-4ADE-9913-FF6287756C13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,14 +115,14 @@
     <t>Cost of Living in Poland</t>
   </si>
   <si>
-    <t>C:Users/vano/Documents/GitHub/ZPI_VAF/iaff_assistant/images/Student/costs.jpg</t>
+    <t>https://iaffimages.blob.core.windows.net/imagecontainer/costs.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +137,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -157,18 +166,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -184,9 +196,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -224,7 +236,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -330,7 +342,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -486,15 +498,15 @@
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="107.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="5" max="10" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="107.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="5" max="10" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -544,7 +556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="288" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="315" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -566,11 +578,14 @@
       <c r="J2">
         <v>20</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{E201CD6D-DBE3-4A40-B57A-B6D4FDAC1B52}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>